--- a/我的创作/人际关系/人际关系.xlsx
+++ b/我的创作/人际关系/人际关系.xlsx
@@ -13,15 +13,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>人物</t>
+  </si>
+  <si>
+    <t>事迹</t>
+  </si>
+  <si>
+    <t>性格特征</t>
+  </si>
+  <si>
+    <t>爸</t>
+  </si>
+  <si>
+    <t>妈</t>
+  </si>
+  <si>
+    <t>妹妹</t>
+  </si>
+  <si>
+    <t>妹夫</t>
+  </si>
+  <si>
+    <t>尚好奇</t>
+  </si>
+  <si>
+    <t>杨冠萌</t>
+  </si>
+  <si>
+    <t>史创</t>
+  </si>
+  <si>
+    <t>龙桑</t>
+  </si>
+  <si>
+    <t>陆恒毅</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>宁茜</t>
+  </si>
+  <si>
+    <t>木心人</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -30,6 +80,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -38,7 +95,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -52,6 +131,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -61,15 +148,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,8 +184,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,39 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,37 +226,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,18 +240,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -207,25 +312,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,25 +372,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,115 +424,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -386,11 +458,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -406,21 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,183 +546,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -947,14 +1025,192 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="42.7053571428571" customWidth="1"/>
+    <col min="3" max="3" width="20.8392857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/我的创作/人际关系/人际关系.xlsx
+++ b/我的创作/人际关系/人际关系.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>人物</t>
   </si>
@@ -28,37 +28,70 @@
     <t>爸</t>
   </si>
   <si>
+    <t>自尊心、同情心、责任心</t>
+  </si>
+  <si>
     <t>妈</t>
   </si>
   <si>
+    <t>自尊心、同情心、好胜心</t>
+  </si>
+  <si>
     <t>妹妹</t>
   </si>
   <si>
+    <t>上进心</t>
+  </si>
+  <si>
     <t>妹夫</t>
   </si>
   <si>
-    <t>尚好奇</t>
-  </si>
-  <si>
-    <t>杨冠萌</t>
-  </si>
-  <si>
-    <t>史创</t>
-  </si>
-  <si>
-    <t>龙桑</t>
-  </si>
-  <si>
-    <t>陆恒毅</t>
-  </si>
-  <si>
-    <t>何</t>
+    <t>猴子</t>
+  </si>
+  <si>
+    <t>自尊心、虚荣心(嫉妒、攀比)、进取心、同情心</t>
+  </si>
+  <si>
+    <t>国字脸</t>
+  </si>
+  <si>
+    <t>自尊心、进取心、同理心(理解和接纳)</t>
+  </si>
+  <si>
+    <t>小白脸</t>
+  </si>
+  <si>
+    <t>很会照顾自身感受(自尊心和同情心偏重)</t>
+  </si>
+  <si>
+    <t>衢州佬</t>
+  </si>
+  <si>
+    <t>自尊心、进取心、同理心</t>
+  </si>
+  <si>
+    <t>富二代</t>
+  </si>
+  <si>
+    <t>自信心</t>
+  </si>
+  <si>
+    <t>富一代</t>
+  </si>
+  <si>
+    <t>自信心、宽容心、耐心</t>
   </si>
   <si>
     <t>宁茜</t>
   </si>
   <si>
+    <t>细心、孝心</t>
+  </si>
+  <si>
     <t>木心人</t>
+  </si>
+  <si>
+    <t>爱心、耐心</t>
   </si>
 </sst>
 </file>
@@ -1028,13 +1061,13 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="2" max="2" width="42.7053571428571" customWidth="1"/>
-    <col min="3" max="3" width="20.8392857142857" customWidth="1"/>
+    <col min="3" max="3" width="53.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1059,7 +1092,9 @@
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1069,10 +1104,12 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1082,10 +1119,12 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1095,10 +1134,12 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1108,10 +1149,12 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1121,10 +1164,12 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1134,10 +1179,12 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1147,10 +1194,12 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1160,10 +1209,12 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1173,10 +1224,12 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1186,10 +1239,12 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1199,10 +1254,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>

--- a/我的创作/人际关系/人际关系.xlsx
+++ b/我的创作/人际关系/人际关系.xlsx
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/人际关系/人际关系.xlsx
+++ b/我的创作/人际关系/人际关系.xlsx
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
